--- a/Oficinas_P_sucursales_T.xlsx
+++ b/Oficinas_P_sucursales_T.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Transportes\Autotransporte\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\4-Comunicaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16B0B092-57BC-4C32-9B99-873C897710DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962C0F5D-51F9-4718-809F-1C2B4630A6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>Aguascalientes</t>
   </si>
@@ -134,12 +134,6 @@
     <t>Zacatecas</t>
   </si>
   <si>
-    <t>Ultima actualización: mayo 2024</t>
-  </si>
-  <si>
-    <t>Dirección General de Planeación</t>
-  </si>
-  <si>
     <t>Entidad federativa</t>
   </si>
   <si>
@@ -156,6 +150,9 @@
   </si>
   <si>
     <t xml:space="preserve">   Financiera para el Bienestar (antes TELECOMM. Telecomunicaciones de México).</t>
+  </si>
+  <si>
+    <t>Actualización: mayo 2024.</t>
   </si>
 </sst>
 </file>
@@ -307,7 +304,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -331,9 +328,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
@@ -342,6 +336,12 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -350,12 +350,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="4"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -624,7 +618,7 @@
   <sheetData>
     <row r="2" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -655,111 +649,111 @@
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="17">
+        <v>2018</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17">
+        <v>2019</v>
+      </c>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17">
+        <v>2020</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17">
+        <v>2021</v>
+      </c>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17">
+        <v>2022</v>
+      </c>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17">
+        <v>2023</v>
+      </c>
+      <c r="N4" s="17"/>
+    </row>
+    <row r="5" spans="2:14" ht="54" x14ac:dyDescent="0.35">
+      <c r="B5" s="19"/>
+      <c r="C5" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="16">
-        <v>2018</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16">
-        <v>2019</v>
-      </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16">
-        <v>2020</v>
-      </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16">
-        <v>2021</v>
-      </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16">
-        <v>2022</v>
-      </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16">
-        <v>2023</v>
-      </c>
-      <c r="N4" s="16"/>
-    </row>
-    <row r="5" spans="2:14" ht="54" x14ac:dyDescent="0.35">
-      <c r="B5" s="18"/>
-      <c r="C5" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>36</v>
+      <c r="E5" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>57</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>20</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <v>57</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <v>20</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <v>44</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="9">
         <v>20</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="9">
         <v>43</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="9">
         <v>20</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="9">
         <v>43</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="9">
         <v>22</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="9">
         <v>41</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="10">
         <v>22</v>
       </c>
     </row>
@@ -767,40 +761,40 @@
       <c r="B7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>55</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>39</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <v>55</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <v>39</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="11">
         <v>57</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="11">
         <v>41</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="11">
         <v>28</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="11">
         <v>41</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="11">
         <v>28</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="11">
         <v>42</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="11">
         <v>28</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="12">
         <v>43</v>
       </c>
     </row>
@@ -808,40 +802,40 @@
       <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>121</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>28</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <v>121</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <v>28</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <v>51</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="9">
         <v>28</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="9">
         <v>51</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="9">
         <v>28</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="9">
         <v>51</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="9">
         <v>28</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="9">
         <v>47</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="10">
         <v>27</v>
       </c>
     </row>
@@ -849,40 +843,40 @@
       <c r="B9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>400</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <v>29</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <v>399</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <v>29</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="11">
         <v>399</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="11">
         <v>30</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="11">
         <v>399</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="11">
         <v>31</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="11">
         <v>399</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="11">
         <v>29</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="11">
         <v>124</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9" s="12">
         <v>30</v>
       </c>
     </row>
@@ -890,40 +884,40 @@
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>1424</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>63</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <v>1424</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <v>63</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <v>179</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <v>62</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="9">
         <v>192</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="9">
         <v>59</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="9">
         <v>192</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="9">
         <v>60</v>
       </c>
-      <c r="M10" s="10">
+      <c r="M10" s="9">
         <v>135</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N10" s="10">
         <v>60</v>
       </c>
     </row>
@@ -931,40 +925,40 @@
       <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <v>501</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>47</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <v>501</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <v>50</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="11">
         <v>211</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="11">
         <v>50</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="11">
         <v>212</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="11">
         <v>50</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="11">
         <v>212</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="11">
         <v>50</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="11">
         <v>211</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N11" s="12">
         <v>44</v>
       </c>
     </row>
@@ -972,40 +966,40 @@
       <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>459</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>75</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="9">
         <v>454</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="9">
         <v>73</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="9">
         <v>180</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="9">
         <v>68</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="9">
         <v>181</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="9">
         <v>69</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="9">
         <v>183</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="9">
         <v>72</v>
       </c>
-      <c r="M12" s="10">
+      <c r="M12" s="9">
         <v>90</v>
       </c>
-      <c r="N12" s="11">
+      <c r="N12" s="10">
         <v>60</v>
       </c>
     </row>
@@ -1013,40 +1007,40 @@
       <c r="B13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>316</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="11">
         <v>53</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="11">
         <v>315</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <v>53</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="11">
         <v>46</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="11">
         <v>53</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="11">
         <v>45</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="11">
         <v>54</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="11">
         <v>45</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="11">
         <v>55</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13" s="11">
         <v>43</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13" s="12">
         <v>41</v>
       </c>
     </row>
@@ -1054,40 +1048,40 @@
       <c r="B14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <v>20</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>23</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="9">
         <v>20</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="9">
         <v>23</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="9">
         <v>19</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="9">
         <v>23</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="9">
         <v>18</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="9">
         <v>23</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K14" s="9">
         <v>18</v>
       </c>
-      <c r="L14" s="10">
+      <c r="L14" s="9">
         <v>23</v>
       </c>
-      <c r="M14" s="10">
+      <c r="M14" s="9">
         <v>17</v>
       </c>
-      <c r="N14" s="11">
+      <c r="N14" s="10">
         <v>21</v>
       </c>
     </row>
@@ -1095,40 +1089,40 @@
       <c r="B15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <v>659</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <v>52</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="11">
         <v>293</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="11">
         <v>52</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="11">
         <v>298</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="11">
         <v>51</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="11">
         <v>159</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="11">
         <v>49</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="11">
         <v>166</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="11">
         <v>48</v>
       </c>
-      <c r="M15" s="12">
+      <c r="M15" s="11">
         <v>154</v>
       </c>
-      <c r="N15" s="13">
+      <c r="N15" s="12">
         <v>44</v>
       </c>
     </row>
@@ -1136,40 +1130,40 @@
       <c r="B16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="9">
         <v>226</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="9">
         <v>66</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="9">
         <v>139</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="9">
         <v>64</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="9">
         <v>55</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="9">
         <v>62</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="9">
         <v>55</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="9">
         <v>62</v>
       </c>
-      <c r="K16" s="10">
+      <c r="K16" s="9">
         <v>54</v>
       </c>
-      <c r="L16" s="10">
+      <c r="L16" s="9">
         <v>58</v>
       </c>
-      <c r="M16" s="10">
+      <c r="M16" s="9">
         <v>52</v>
       </c>
-      <c r="N16" s="11">
+      <c r="N16" s="10">
         <v>59</v>
       </c>
     </row>
@@ -1177,40 +1171,40 @@
       <c r="B17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>380</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="11">
         <v>76</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="11">
         <v>379</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="11">
         <v>75</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="11">
         <v>380</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="11">
         <v>74</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="11">
         <v>380</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="11">
         <v>75</v>
       </c>
-      <c r="K17" s="12">
+      <c r="K17" s="11">
         <v>380</v>
       </c>
-      <c r="L17" s="12">
+      <c r="L17" s="11">
         <v>75</v>
       </c>
-      <c r="M17" s="12">
+      <c r="M17" s="11">
         <v>380</v>
       </c>
-      <c r="N17" s="13">
+      <c r="N17" s="12">
         <v>75</v>
       </c>
       <c r="O17" s="3"/>
@@ -1219,40 +1213,40 @@
       <c r="B18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="9">
         <v>152</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="9">
         <v>46</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="9">
         <v>151</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="9">
         <v>47</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="9">
         <v>151</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="9">
         <v>46</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="9">
         <v>150</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="9">
         <v>47</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K18" s="9">
         <v>150</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L18" s="9">
         <v>49</v>
       </c>
-      <c r="M18" s="10">
+      <c r="M18" s="9">
         <v>149</v>
       </c>
-      <c r="N18" s="11">
+      <c r="N18" s="10">
         <v>58</v>
       </c>
       <c r="O18" s="3"/>
@@ -1261,40 +1255,40 @@
       <c r="B19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="11">
         <v>536</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="11">
         <v>110</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="11">
         <v>525</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="11">
         <v>109</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="11">
         <v>442</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="11">
         <v>111</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="11">
         <v>332</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="11">
         <v>111</v>
       </c>
-      <c r="K19" s="12">
+      <c r="K19" s="11">
         <v>327</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L19" s="11">
         <v>110</v>
       </c>
-      <c r="M19" s="12">
+      <c r="M19" s="11">
         <v>323</v>
       </c>
-      <c r="N19" s="13">
+      <c r="N19" s="12">
         <v>101</v>
       </c>
     </row>
@@ -1302,40 +1296,40 @@
       <c r="B20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="9">
         <v>403</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="9">
         <v>89</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="9">
         <v>400</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="9">
         <v>84</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="9">
         <v>288</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="9">
         <v>79</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="9">
         <v>279</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J20" s="9">
         <v>78</v>
       </c>
-      <c r="K20" s="10">
+      <c r="K20" s="9">
         <v>280</v>
       </c>
-      <c r="L20" s="10">
+      <c r="L20" s="9">
         <v>79</v>
       </c>
-      <c r="M20" s="10">
+      <c r="M20" s="9">
         <v>169</v>
       </c>
-      <c r="N20" s="11">
+      <c r="N20" s="10">
         <v>77</v>
       </c>
     </row>
@@ -1343,40 +1337,40 @@
       <c r="B21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="11">
         <v>864</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="11">
         <v>83</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="11">
         <v>466</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="11">
         <v>82</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="11">
         <v>432</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="11">
         <v>83</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="11">
         <v>441</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="11">
         <v>83</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K21" s="11">
         <v>441</v>
       </c>
-      <c r="L21" s="12">
+      <c r="L21" s="11">
         <v>83</v>
       </c>
-      <c r="M21" s="12">
+      <c r="M21" s="11">
         <v>441</v>
       </c>
-      <c r="N21" s="13">
+      <c r="N21" s="12">
         <v>83</v>
       </c>
     </row>
@@ -1384,40 +1378,40 @@
       <c r="B22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="9">
         <v>58</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="9">
         <v>39</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="9">
         <v>60</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="9">
         <v>38</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="9">
         <v>47</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="9">
         <v>38</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="9">
         <v>48</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J22" s="9">
         <v>37</v>
       </c>
-      <c r="K22" s="10">
+      <c r="K22" s="9">
         <v>49</v>
       </c>
-      <c r="L22" s="10">
+      <c r="L22" s="9">
         <v>39</v>
       </c>
-      <c r="M22" s="10">
+      <c r="M22" s="9">
         <v>49</v>
       </c>
-      <c r="N22" s="11">
+      <c r="N22" s="10">
         <v>39</v>
       </c>
     </row>
@@ -1425,40 +1419,40 @@
       <c r="B23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="11">
         <v>446</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="11">
         <v>40</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="11">
         <v>444</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="11">
         <v>40</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="11">
         <v>444</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="11">
         <v>40</v>
       </c>
-      <c r="I23" s="12">
+      <c r="I23" s="11">
         <v>444</v>
       </c>
-      <c r="J23" s="12">
+      <c r="J23" s="11">
         <v>40</v>
       </c>
-      <c r="K23" s="12">
+      <c r="K23" s="11">
         <v>420</v>
       </c>
-      <c r="L23" s="12">
+      <c r="L23" s="11">
         <v>39</v>
       </c>
-      <c r="M23" s="12">
+      <c r="M23" s="11">
         <v>245</v>
       </c>
-      <c r="N23" s="13">
+      <c r="N23" s="12">
         <v>40</v>
       </c>
     </row>
@@ -1466,40 +1460,40 @@
       <c r="B24" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="9">
         <v>75</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="9">
         <v>42</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="9">
         <v>73</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="9">
         <v>43</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="9">
         <v>72</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="9">
         <v>43</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="9">
         <v>73</v>
       </c>
-      <c r="J24" s="10">
+      <c r="J24" s="9">
         <v>43</v>
       </c>
-      <c r="K24" s="10">
+      <c r="K24" s="9">
         <v>73</v>
       </c>
-      <c r="L24" s="10">
+      <c r="L24" s="9">
         <v>43</v>
       </c>
-      <c r="M24" s="10">
+      <c r="M24" s="9">
         <v>71</v>
       </c>
-      <c r="N24" s="11">
+      <c r="N24" s="10">
         <v>36</v>
       </c>
     </row>
@@ -1507,40 +1501,40 @@
       <c r="B25" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="11">
         <v>3769</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="11">
         <v>130</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="11">
         <v>3778</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="11">
         <v>127</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="11">
         <v>1795</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="11">
         <v>125</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="11">
         <v>1782</v>
       </c>
-      <c r="J25" s="12">
+      <c r="J25" s="11">
         <v>129</v>
       </c>
-      <c r="K25" s="12">
+      <c r="K25" s="11">
         <v>1774</v>
       </c>
-      <c r="L25" s="12">
+      <c r="L25" s="11">
         <v>132</v>
       </c>
-      <c r="M25" s="12">
+      <c r="M25" s="11">
         <v>877</v>
       </c>
-      <c r="N25" s="13">
+      <c r="N25" s="12">
         <v>132</v>
       </c>
     </row>
@@ -1548,40 +1542,40 @@
       <c r="B26" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="9">
         <v>696</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="9">
         <v>68</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="9">
         <v>696</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="9">
         <v>66</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="9">
         <v>389</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="9">
         <v>65</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="9">
         <v>385</v>
       </c>
-      <c r="J26" s="10">
+      <c r="J26" s="9">
         <v>66</v>
       </c>
-      <c r="K26" s="10">
+      <c r="K26" s="9">
         <v>385</v>
       </c>
-      <c r="L26" s="10">
+      <c r="L26" s="9">
         <v>67</v>
       </c>
-      <c r="M26" s="10">
+      <c r="M26" s="9">
         <v>385</v>
       </c>
-      <c r="N26" s="11">
+      <c r="N26" s="10">
         <v>65</v>
       </c>
     </row>
@@ -1589,40 +1583,40 @@
       <c r="B27" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="11">
         <v>61</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="11">
         <v>28</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="11">
         <v>59</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="11">
         <v>28</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="11">
         <v>58</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H27" s="11">
         <v>28</v>
       </c>
-      <c r="I27" s="12">
+      <c r="I27" s="11">
         <v>58</v>
       </c>
-      <c r="J27" s="12">
+      <c r="J27" s="11">
         <v>27</v>
       </c>
-      <c r="K27" s="12">
+      <c r="K27" s="11">
         <v>58</v>
       </c>
-      <c r="L27" s="12">
+      <c r="L27" s="11">
         <v>27</v>
       </c>
-      <c r="M27" s="12">
+      <c r="M27" s="11">
         <v>49</v>
       </c>
-      <c r="N27" s="13">
+      <c r="N27" s="12">
         <v>27</v>
       </c>
     </row>
@@ -1630,40 +1624,40 @@
       <c r="B28" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="9">
         <v>318</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="9">
         <v>26</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="9">
         <v>274</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="9">
         <v>27</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G28" s="9">
         <v>256</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="9">
         <v>29</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I28" s="9">
         <v>108</v>
       </c>
-      <c r="J28" s="10">
+      <c r="J28" s="9">
         <v>30</v>
       </c>
-      <c r="K28" s="10">
+      <c r="K28" s="9">
         <v>108</v>
       </c>
-      <c r="L28" s="10">
+      <c r="L28" s="9">
         <v>30</v>
       </c>
-      <c r="M28" s="10">
+      <c r="M28" s="9">
         <v>108</v>
       </c>
-      <c r="N28" s="11">
+      <c r="N28" s="10">
         <v>30</v>
       </c>
     </row>
@@ -1671,40 +1665,40 @@
       <c r="B29" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="11">
         <v>831</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="11">
         <v>48</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="11">
         <v>831</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F29" s="11">
         <v>48</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="11">
         <v>426</v>
       </c>
-      <c r="H29" s="12">
+      <c r="H29" s="11">
         <v>47</v>
       </c>
-      <c r="I29" s="12">
+      <c r="I29" s="11">
         <v>157</v>
       </c>
-      <c r="J29" s="12">
+      <c r="J29" s="11">
         <v>46</v>
       </c>
-      <c r="K29" s="12">
+      <c r="K29" s="11">
         <v>157</v>
       </c>
-      <c r="L29" s="12">
+      <c r="L29" s="11">
         <v>46</v>
       </c>
-      <c r="M29" s="12">
+      <c r="M29" s="11">
         <v>135</v>
       </c>
-      <c r="N29" s="13">
+      <c r="N29" s="12">
         <v>48</v>
       </c>
     </row>
@@ -1712,40 +1706,40 @@
       <c r="B30" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="9">
         <v>330</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="9">
         <v>67</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="9">
         <v>330</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="9">
         <v>67</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="9">
         <v>103</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="9">
         <v>67</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="9">
         <v>102</v>
       </c>
-      <c r="J30" s="10">
+      <c r="J30" s="9">
         <v>67</v>
       </c>
-      <c r="K30" s="10">
+      <c r="K30" s="9">
         <v>103</v>
       </c>
-      <c r="L30" s="10">
+      <c r="L30" s="9">
         <v>66</v>
       </c>
-      <c r="M30" s="10">
+      <c r="M30" s="9">
         <v>102</v>
       </c>
-      <c r="N30" s="11">
+      <c r="N30" s="10">
         <v>65</v>
       </c>
     </row>
@@ -1753,40 +1747,40 @@
       <c r="B31" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="11">
         <v>211</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="11">
         <v>82</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="11">
         <v>211</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="11">
         <v>85</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G31" s="11">
         <v>212</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H31" s="11">
         <v>74</v>
       </c>
-      <c r="I31" s="12">
+      <c r="I31" s="11">
         <v>212</v>
       </c>
-      <c r="J31" s="12">
+      <c r="J31" s="11">
         <v>73</v>
       </c>
-      <c r="K31" s="12">
+      <c r="K31" s="11">
         <v>212</v>
       </c>
-      <c r="L31" s="12">
+      <c r="L31" s="11">
         <v>73</v>
       </c>
-      <c r="M31" s="12">
+      <c r="M31" s="11">
         <v>214</v>
       </c>
-      <c r="N31" s="13">
+      <c r="N31" s="12">
         <v>67</v>
       </c>
     </row>
@@ -1794,40 +1788,40 @@
       <c r="B32" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="9">
         <v>1005</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="9">
         <v>38</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="9">
         <v>1005</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="9">
         <v>39</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="9">
         <v>29</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H32" s="9">
         <v>40</v>
       </c>
-      <c r="I32" s="10">
+      <c r="I32" s="9">
         <v>29</v>
       </c>
-      <c r="J32" s="10">
+      <c r="J32" s="9">
         <v>40</v>
       </c>
-      <c r="K32" s="10">
+      <c r="K32" s="9">
         <v>28</v>
       </c>
-      <c r="L32" s="10">
+      <c r="L32" s="9">
         <v>38</v>
       </c>
-      <c r="M32" s="10">
+      <c r="M32" s="9">
         <v>26</v>
       </c>
-      <c r="N32" s="11">
+      <c r="N32" s="10">
         <v>38</v>
       </c>
     </row>
@@ -1835,40 +1829,40 @@
       <c r="B33" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="11">
         <v>128</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="11">
         <v>48</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="11">
         <v>128</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F33" s="11">
         <v>48</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G33" s="11">
         <v>66</v>
       </c>
-      <c r="H33" s="12">
+      <c r="H33" s="11">
         <v>46</v>
       </c>
-      <c r="I33" s="12">
+      <c r="I33" s="11">
         <v>66</v>
       </c>
-      <c r="J33" s="12">
+      <c r="J33" s="11">
         <v>46</v>
       </c>
-      <c r="K33" s="12">
+      <c r="K33" s="11">
         <v>66</v>
       </c>
-      <c r="L33" s="12">
+      <c r="L33" s="11">
         <v>45</v>
       </c>
-      <c r="M33" s="12">
+      <c r="M33" s="11">
         <v>58</v>
       </c>
-      <c r="N33" s="13">
+      <c r="N33" s="12">
         <v>44</v>
       </c>
     </row>
@@ -1876,40 +1870,40 @@
       <c r="B34" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="9">
         <v>199</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="9">
         <v>12</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="9">
         <v>199</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F34" s="9">
         <v>12</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G34" s="9">
         <v>166</v>
       </c>
-      <c r="H34" s="10">
+      <c r="H34" s="9">
         <v>12</v>
       </c>
-      <c r="I34" s="10">
+      <c r="I34" s="9">
         <v>166</v>
       </c>
-      <c r="J34" s="10">
+      <c r="J34" s="9">
         <v>12</v>
       </c>
-      <c r="K34" s="10">
+      <c r="K34" s="9">
         <v>166</v>
       </c>
-      <c r="L34" s="10">
+      <c r="L34" s="9">
         <v>13</v>
       </c>
-      <c r="M34" s="10">
+      <c r="M34" s="9">
         <v>163</v>
       </c>
-      <c r="N34" s="11">
+      <c r="N34" s="10">
         <v>14</v>
       </c>
     </row>
@@ -1917,40 +1911,40 @@
       <c r="B35" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="11">
         <v>477</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="11">
         <v>121</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="11">
         <v>485</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F35" s="11">
         <v>121</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="11">
         <v>338</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H35" s="11">
         <v>119</v>
       </c>
-      <c r="I35" s="12">
+      <c r="I35" s="11">
         <v>347</v>
       </c>
-      <c r="J35" s="12">
+      <c r="J35" s="11">
         <v>119</v>
       </c>
-      <c r="K35" s="12">
+      <c r="K35" s="11">
         <v>343</v>
       </c>
-      <c r="L35" s="12">
+      <c r="L35" s="11">
         <v>117</v>
       </c>
-      <c r="M35" s="12">
+      <c r="M35" s="11">
         <v>340</v>
       </c>
-      <c r="N35" s="13">
+      <c r="N35" s="12">
         <v>119</v>
       </c>
     </row>
@@ -1958,40 +1952,40 @@
       <c r="B36" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="9">
         <v>799</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="9">
         <v>41</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="9">
         <v>799</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="9">
         <v>37</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G36" s="9">
         <v>189</v>
       </c>
-      <c r="H36" s="10">
+      <c r="H36" s="9">
         <v>38</v>
       </c>
-      <c r="I36" s="10">
+      <c r="I36" s="9">
         <v>190</v>
       </c>
-      <c r="J36" s="10">
+      <c r="J36" s="9">
         <v>37</v>
       </c>
-      <c r="K36" s="10">
+      <c r="K36" s="9">
         <v>191</v>
       </c>
-      <c r="L36" s="10">
+      <c r="L36" s="9">
         <v>38</v>
       </c>
-      <c r="M36" s="10">
+      <c r="M36" s="9">
         <v>183</v>
       </c>
-      <c r="N36" s="11">
+      <c r="N36" s="10">
         <v>37</v>
       </c>
     </row>
@@ -1999,45 +1993,45 @@
       <c r="B37" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C37" s="13">
         <v>820</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D37" s="13">
         <v>35</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E37" s="13">
         <v>820</v>
       </c>
-      <c r="F37" s="14">
+      <c r="F37" s="13">
         <v>35</v>
       </c>
-      <c r="G37" s="14">
+      <c r="G37" s="13">
         <v>123</v>
       </c>
-      <c r="H37" s="14">
+      <c r="H37" s="13">
         <v>36</v>
       </c>
-      <c r="I37" s="14">
+      <c r="I37" s="13">
         <v>122</v>
       </c>
-      <c r="J37" s="14">
+      <c r="J37" s="13">
         <v>36</v>
       </c>
-      <c r="K37" s="14">
+      <c r="K37" s="13">
         <v>122</v>
       </c>
-      <c r="L37" s="14">
+      <c r="L37" s="13">
         <v>36</v>
       </c>
-      <c r="M37" s="14">
+      <c r="M37" s="13">
         <v>114</v>
       </c>
-      <c r="N37" s="15">
+      <c r="N37" s="14">
         <v>39</v>
       </c>
     </row>
     <row r="38" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="3"/>
@@ -2045,20 +2039,18 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
-      <c r="N38" s="8" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="39" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="20" t="s">
-        <v>39</v>
+      <c r="B39" t="s">
+        <v>36</v>
       </c>
       <c r="C39" s="3"/>
-      <c r="N39" s="9" t="s">
-        <v>33</v>
-      </c>
+      <c r="N39" s="8"/>
     </row>
     <row r="40" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="16" t="s">
+        <v>37</v>
+      </c>
       <c r="C40" s="7"/>
     </row>
     <row r="166" spans="8:8" x14ac:dyDescent="0.35">

--- a/Oficinas_P_sucursales_T.xlsx
+++ b/Oficinas_P_sucursales_T.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\4-Comunicaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962C0F5D-51F9-4718-809F-1C2B4630A6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62C3106-BEFF-4E45-BAB0-2556AD9F811B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="CE_4" sheetId="1" r:id="rId1"/>

--- a/Oficinas_P_sucursales_T.xlsx
+++ b/Oficinas_P_sucursales_T.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\4-Comunicaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62C3106-BEFF-4E45-BAB0-2556AD9F811B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2206692B-9621-4360-A2EF-A12371CC444E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="CE_4" sheetId="1" r:id="rId1"/>
@@ -152,7 +152,7 @@
     <t xml:space="preserve">   Financiera para el Bienestar (antes TELECOMM. Telecomunicaciones de México).</t>
   </si>
   <si>
-    <t>Actualización: mayo 2024.</t>
+    <t>Actualización: Mayo 2024.</t>
   </si>
 </sst>
 </file>
@@ -163,19 +163,19 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -183,27 +183,27 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
   </fonts>
@@ -372,7 +372,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="INSTITUCIONAL">
+    <a:clrScheme name="Intitucional 2025">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -380,28 +380,28 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="9F2241"/>
+        <a:srgbClr val="9B2247"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BC955C"/>
+        <a:srgbClr val="C39326"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="235B4E"/>
+        <a:srgbClr val="806B4A"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="98989A"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="DDC9A3"/>
+        <a:srgbClr val="E6D194"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="691C32"/>
+        <a:srgbClr val="611232"/>
       </a:accent4>
       <a:accent5>
         <a:srgbClr val="6F7271"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="10312B"/>
+        <a:srgbClr val="7E664A"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="4E4E4E"/>
@@ -410,14 +410,14 @@
         <a:srgbClr val="808080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="INSTITUCIONAL">
+    <a:fontScheme name="Personalizado 1">
       <a:majorFont>
-        <a:latin typeface="Montserrat"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Montserrat Medium"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -598,25 +598,25 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="15.19921875" customWidth="1"/>
-    <col min="3" max="3" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.09765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="26.125" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.875" customWidth="1"/>
+    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="8.875" customWidth="1"/>
+    <col min="12" max="12" width="10.375" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>35</v>
       </c>
@@ -633,7 +633,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -648,7 +648,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
         <v>32</v>
       </c>
@@ -677,7 +677,7 @@
       </c>
       <c r="N4" s="17"/>
     </row>
-    <row r="5" spans="2:14" ht="54" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:14" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="19"/>
       <c r="C5" s="15" t="s">
         <v>33</v>
@@ -716,7 +716,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>0</v>
       </c>
@@ -757,7 +757,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>1</v>
       </c>
@@ -798,7 +798,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
@@ -839,7 +839,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>3</v>
       </c>
@@ -880,7 +880,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
@@ -921,7 +921,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
@@ -962,7 +962,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="36" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>4</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>5</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>9</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>10</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>11</v>
       </c>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>12</v>
       </c>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>13</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>14</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="36" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>15</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>16</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>17</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>18</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>19</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>20</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>21</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>22</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>23</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>24</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>25</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
         <v>26</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>27</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>28</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="2:14" ht="36" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>29</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
         <v>30</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
         <v>31</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>38</v>
       </c>
@@ -2040,26 +2040,26 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>36</v>
       </c>
       <c r="C39" s="3"/>
       <c r="N39" s="8"/>
     </row>
-    <row r="40" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C40" s="7"/>
     </row>
-    <row r="166" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="166" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H166" s="3"/>
     </row>
-    <row r="167" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="167" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H167" s="3"/>
     </row>
-    <row r="168" spans="8:8" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="168" spans="8:8" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="M4:N4"/>

--- a/Oficinas_P_sucursales_T.xlsx
+++ b/Oficinas_P_sucursales_T.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\4-Comunicaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2206692B-9621-4360-A2EF-A12371CC444E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B041B4-4399-43B7-A137-B85705EEA7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -159,7 +159,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,23 +168,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
@@ -194,17 +181,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Geomanist"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Geomanist"/>
-      <scheme val="major"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -302,54 +298,55 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -598,25 +595,26 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="26.125" customWidth="1"/>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.875" customWidth="1"/>
-    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" customWidth="1"/>
-    <col min="11" max="11" width="8.875" customWidth="1"/>
-    <col min="12" max="12" width="10.375" customWidth="1"/>
-    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" customWidth="1"/>
+    <col min="1" max="1" width="5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>35</v>
       </c>
@@ -633,7 +631,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -648,76 +646,76 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="5">
         <v>2018</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5">
         <v>2019</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5">
         <v>2020</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17">
+      <c r="H4" s="5"/>
+      <c r="I4" s="5">
         <v>2021</v>
       </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17">
+      <c r="J4" s="5"/>
+      <c r="K4" s="5">
         <v>2022</v>
       </c>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17">
+      <c r="L4" s="5"/>
+      <c r="M4" s="5">
         <v>2023</v>
       </c>
-      <c r="N4" s="17"/>
-    </row>
-    <row r="5" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B5" s="19"/>
-      <c r="C5" s="15" t="s">
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="2:14" ht="78" x14ac:dyDescent="0.45">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B6" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="9">
@@ -757,49 +755,49 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="12">
         <v>55</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="12">
         <v>39</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="12">
         <v>55</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="12">
         <v>39</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="12">
         <v>57</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="12">
         <v>41</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="12">
         <v>28</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="12">
         <v>41</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="12">
         <v>28</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="12">
         <v>42</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="12">
         <v>28</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="13">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B8" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="9">
@@ -839,49 +837,49 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B9" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="12">
         <v>400</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="12">
         <v>29</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="12">
         <v>399</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="12">
         <v>29</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="12">
         <v>399</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="12">
         <v>30</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="12">
         <v>399</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="12">
         <v>31</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="12">
         <v>399</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="12">
         <v>29</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="12">
         <v>124</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="13">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B10" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="9">
@@ -921,49 +919,49 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="12">
         <v>501</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="12">
         <v>47</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="12">
         <v>501</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="12">
         <v>50</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="12">
         <v>211</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="12">
         <v>50</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="12">
         <v>212</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="12">
         <v>50</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="12">
         <v>212</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="12">
         <v>50</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="12">
         <v>211</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="13">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B12" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="9">
@@ -1003,49 +1001,49 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="12">
         <v>316</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="12">
         <v>53</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="12">
         <v>315</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="12">
         <v>53</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="12">
         <v>46</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="12">
         <v>53</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="12">
         <v>45</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="12">
         <v>54</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="12">
         <v>45</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="12">
         <v>55</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="12">
         <v>43</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="13">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B14" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="9">
@@ -1085,49 +1083,49 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B15" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="12">
         <v>659</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="12">
         <v>52</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="12">
         <v>293</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="12">
         <v>52</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="12">
         <v>298</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="12">
         <v>51</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="12">
         <v>159</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="12">
         <v>49</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="12">
         <v>166</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="12">
         <v>48</v>
       </c>
-      <c r="M15" s="11">
+      <c r="M15" s="12">
         <v>154</v>
       </c>
-      <c r="N15" s="12">
+      <c r="N15" s="13">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B16" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="9">
@@ -1167,50 +1165,50 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="12">
         <v>380</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="12">
         <v>76</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="12">
         <v>379</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="12">
         <v>75</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="12">
         <v>380</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="12">
         <v>74</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="12">
         <v>380</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="12">
         <v>75</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="12">
         <v>380</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L17" s="12">
         <v>75</v>
       </c>
-      <c r="M17" s="11">
+      <c r="M17" s="12">
         <v>380</v>
       </c>
-      <c r="N17" s="12">
+      <c r="N17" s="13">
         <v>75</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
+      <c r="O17" s="14"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B18" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="9">
@@ -1249,51 +1247,51 @@
       <c r="N18" s="10">
         <v>58</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
+      <c r="O18" s="14"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B19" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="12">
         <v>536</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="12">
         <v>110</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="12">
         <v>525</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="12">
         <v>109</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="12">
         <v>442</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="12">
         <v>111</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="12">
         <v>332</v>
       </c>
-      <c r="J19" s="11">
+      <c r="J19" s="12">
         <v>111</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K19" s="12">
         <v>327</v>
       </c>
-      <c r="L19" s="11">
+      <c r="L19" s="12">
         <v>110</v>
       </c>
-      <c r="M19" s="11">
+      <c r="M19" s="12">
         <v>323</v>
       </c>
-      <c r="N19" s="12">
+      <c r="N19" s="13">
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B20" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="9">
@@ -1333,49 +1331,49 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B21" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="12">
         <v>864</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="12">
         <v>83</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="12">
         <v>466</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="12">
         <v>82</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="12">
         <v>432</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="12">
         <v>83</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="12">
         <v>441</v>
       </c>
-      <c r="J21" s="11">
+      <c r="J21" s="12">
         <v>83</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K21" s="12">
         <v>441</v>
       </c>
-      <c r="L21" s="11">
+      <c r="L21" s="12">
         <v>83</v>
       </c>
-      <c r="M21" s="11">
+      <c r="M21" s="12">
         <v>441</v>
       </c>
-      <c r="N21" s="12">
+      <c r="N21" s="13">
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B22" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="9">
@@ -1415,49 +1413,49 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B23" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="12">
         <v>446</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="12">
         <v>40</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="12">
         <v>444</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="12">
         <v>40</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="12">
         <v>444</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23" s="12">
         <v>40</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="12">
         <v>444</v>
       </c>
-      <c r="J23" s="11">
+      <c r="J23" s="12">
         <v>40</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K23" s="12">
         <v>420</v>
       </c>
-      <c r="L23" s="11">
+      <c r="L23" s="12">
         <v>39</v>
       </c>
-      <c r="M23" s="11">
+      <c r="M23" s="12">
         <v>245</v>
       </c>
-      <c r="N23" s="12">
+      <c r="N23" s="13">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B24" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="9">
@@ -1497,49 +1495,49 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B25" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="12">
         <v>3769</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="12">
         <v>130</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="12">
         <v>3778</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="12">
         <v>127</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="12">
         <v>1795</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="12">
         <v>125</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I25" s="12">
         <v>1782</v>
       </c>
-      <c r="J25" s="11">
+      <c r="J25" s="12">
         <v>129</v>
       </c>
-      <c r="K25" s="11">
+      <c r="K25" s="12">
         <v>1774</v>
       </c>
-      <c r="L25" s="11">
+      <c r="L25" s="12">
         <v>132</v>
       </c>
-      <c r="M25" s="11">
+      <c r="M25" s="12">
         <v>877</v>
       </c>
-      <c r="N25" s="12">
+      <c r="N25" s="13">
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="4" t="s">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B26" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C26" s="9">
@@ -1579,49 +1577,49 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="5" t="s">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B27" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="12">
         <v>61</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="12">
         <v>28</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="12">
         <v>59</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="12">
         <v>28</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27" s="12">
         <v>58</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H27" s="12">
         <v>28</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I27" s="12">
         <v>58</v>
       </c>
-      <c r="J27" s="11">
+      <c r="J27" s="12">
         <v>27</v>
       </c>
-      <c r="K27" s="11">
+      <c r="K27" s="12">
         <v>58</v>
       </c>
-      <c r="L27" s="11">
+      <c r="L27" s="12">
         <v>27</v>
       </c>
-      <c r="M27" s="11">
+      <c r="M27" s="12">
         <v>49</v>
       </c>
-      <c r="N27" s="12">
+      <c r="N27" s="13">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B28" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C28" s="9">
@@ -1661,49 +1659,49 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="5" t="s">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B29" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="12">
         <v>831</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="12">
         <v>48</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="12">
         <v>831</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="12">
         <v>48</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G29" s="12">
         <v>426</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H29" s="12">
         <v>47</v>
       </c>
-      <c r="I29" s="11">
+      <c r="I29" s="12">
         <v>157</v>
       </c>
-      <c r="J29" s="11">
+      <c r="J29" s="12">
         <v>46</v>
       </c>
-      <c r="K29" s="11">
+      <c r="K29" s="12">
         <v>157</v>
       </c>
-      <c r="L29" s="11">
+      <c r="L29" s="12">
         <v>46</v>
       </c>
-      <c r="M29" s="11">
+      <c r="M29" s="12">
         <v>135</v>
       </c>
-      <c r="N29" s="12">
+      <c r="N29" s="13">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="s">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B30" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C30" s="9">
@@ -1743,49 +1741,49 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="5" t="s">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B31" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="12">
         <v>211</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="12">
         <v>82</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="12">
         <v>211</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="12">
         <v>85</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G31" s="12">
         <v>212</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H31" s="12">
         <v>74</v>
       </c>
-      <c r="I31" s="11">
+      <c r="I31" s="12">
         <v>212</v>
       </c>
-      <c r="J31" s="11">
+      <c r="J31" s="12">
         <v>73</v>
       </c>
-      <c r="K31" s="11">
+      <c r="K31" s="12">
         <v>212</v>
       </c>
-      <c r="L31" s="11">
+      <c r="L31" s="12">
         <v>73</v>
       </c>
-      <c r="M31" s="11">
+      <c r="M31" s="12">
         <v>214</v>
       </c>
-      <c r="N31" s="12">
+      <c r="N31" s="13">
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="4" t="s">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B32" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C32" s="9">
@@ -1825,49 +1823,49 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="5" t="s">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B33" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="12">
         <v>128</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="12">
         <v>48</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="12">
         <v>128</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F33" s="12">
         <v>48</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G33" s="12">
         <v>66</v>
       </c>
-      <c r="H33" s="11">
+      <c r="H33" s="12">
         <v>46</v>
       </c>
-      <c r="I33" s="11">
+      <c r="I33" s="12">
         <v>66</v>
       </c>
-      <c r="J33" s="11">
+      <c r="J33" s="12">
         <v>46</v>
       </c>
-      <c r="K33" s="11">
+      <c r="K33" s="12">
         <v>66</v>
       </c>
-      <c r="L33" s="11">
+      <c r="L33" s="12">
         <v>45</v>
       </c>
-      <c r="M33" s="11">
+      <c r="M33" s="12">
         <v>58</v>
       </c>
-      <c r="N33" s="12">
+      <c r="N33" s="13">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="4" t="s">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B34" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C34" s="9">
@@ -1907,49 +1905,49 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="5" t="s">
+    <row r="35" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="12">
         <v>477</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="12">
         <v>121</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="12">
         <v>485</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="12">
         <v>121</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G35" s="12">
         <v>338</v>
       </c>
-      <c r="H35" s="11">
+      <c r="H35" s="12">
         <v>119</v>
       </c>
-      <c r="I35" s="11">
+      <c r="I35" s="12">
         <v>347</v>
       </c>
-      <c r="J35" s="11">
+      <c r="J35" s="12">
         <v>119</v>
       </c>
-      <c r="K35" s="11">
+      <c r="K35" s="12">
         <v>343</v>
       </c>
-      <c r="L35" s="11">
+      <c r="L35" s="12">
         <v>117</v>
       </c>
-      <c r="M35" s="11">
+      <c r="M35" s="12">
         <v>340</v>
       </c>
-      <c r="N35" s="12">
+      <c r="N35" s="13">
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="4" t="s">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B36" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C36" s="9">
@@ -1989,77 +1987,77 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="6" t="s">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B37" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="16">
         <v>820</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D37" s="16">
         <v>35</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="16">
         <v>820</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F37" s="16">
         <v>35</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G37" s="16">
         <v>123</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H37" s="16">
         <v>36</v>
       </c>
-      <c r="I37" s="13">
+      <c r="I37" s="16">
         <v>122</v>
       </c>
-      <c r="J37" s="13">
+      <c r="J37" s="16">
         <v>36</v>
       </c>
-      <c r="K37" s="13">
+      <c r="K37" s="16">
         <v>122</v>
       </c>
-      <c r="L37" s="13">
+      <c r="L37" s="16">
         <v>36</v>
       </c>
-      <c r="M37" s="13">
+      <c r="M37" s="16">
         <v>114</v>
       </c>
-      <c r="N37" s="14">
+      <c r="N37" s="17">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B38" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+    </row>
+    <row r="39" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="3"/>
-      <c r="N39" s="8"/>
-    </row>
-    <row r="40" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="16" t="s">
+      <c r="C39" s="14"/>
+      <c r="N39" s="18"/>
+    </row>
+    <row r="40" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="7"/>
-    </row>
-    <row r="166" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H166" s="3"/>
-    </row>
-    <row r="167" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H167" s="3"/>
-    </row>
-    <row r="168" spans="8:8" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C40" s="20"/>
+    </row>
+    <row r="166" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H166" s="14"/>
+    </row>
+    <row r="167" spans="8:8" x14ac:dyDescent="0.45">
+      <c r="H167" s="14"/>
+    </row>
+    <row r="168" spans="8:8" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="M4:N4"/>
@@ -2070,7 +2068,8 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Oficinas_P_sucursales_T.xlsx
+++ b/Oficinas_P_sucursales_T.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\4-Comunicaciones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\4-Comunicaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B041B4-4399-43B7-A137-B85705EEA7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401FBB1A-09DB-4211-9C56-4DF7C5351B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="CE_4" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>Aguascalientes</t>
   </si>
@@ -152,14 +152,14 @@
     <t xml:space="preserve">   Financiera para el Bienestar (antes TELECOMM. Telecomunicaciones de México).</t>
   </si>
   <si>
-    <t>Actualización: Mayo 2024.</t>
+    <t>Actualización: Mayo 2025.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,7 +223,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -295,6 +295,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -309,15 +320,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -329,7 +331,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -348,6 +349,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -589,13 +600,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:O168"/>
+  <dimension ref="B2:P261"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5" style="3" customWidth="1"/>
     <col min="2" max="2" width="26.125" style="3" customWidth="1"/>
@@ -614,7 +625,7 @@
     <col min="15" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:16" ht="18" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>35</v>
       </c>
@@ -631,7 +642,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:16">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -646,1420 +657,2730 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="2:16">
+      <c r="B4" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="17">
         <v>2018</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17">
         <v>2019</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5">
+      <c r="F4" s="17"/>
+      <c r="G4" s="17">
         <v>2020</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5">
+      <c r="H4" s="17"/>
+      <c r="I4" s="17">
         <v>2021</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5">
+      <c r="J4" s="17"/>
+      <c r="K4" s="17">
         <v>2022</v>
       </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5">
+      <c r="L4" s="17"/>
+      <c r="M4" s="17">
         <v>2023</v>
       </c>
-      <c r="N4" s="5"/>
-    </row>
-    <row r="5" spans="2:14" ht="78" x14ac:dyDescent="0.45">
-      <c r="B5" s="6"/>
-      <c r="C5" s="7" t="s">
+      <c r="N4" s="17"/>
+      <c r="O4" s="17">
+        <v>2024</v>
+      </c>
+      <c r="P4" s="17"/>
+    </row>
+    <row r="5" spans="2:16" ht="33">
+      <c r="B5" s="19"/>
+      <c r="C5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B6" s="8" t="s">
+      <c r="O5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16">
+      <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="6">
         <v>57</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="6">
         <v>20</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="6">
         <v>57</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="6">
         <v>20</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="6">
         <v>44</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="6">
         <v>20</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="6">
         <v>43</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="6">
         <v>20</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="6">
         <v>43</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="6">
         <v>22</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="6">
         <v>41</v>
       </c>
-      <c r="N6" s="10">
+      <c r="N6" s="6">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B7" s="11" t="s">
+      <c r="O6" s="6">
+        <v>41</v>
+      </c>
+      <c r="P6" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16">
+      <c r="B7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="20">
         <v>55</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="20">
         <v>39</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="20">
         <v>55</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="20">
         <v>39</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="20">
         <v>57</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="20">
         <v>41</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="20">
         <v>28</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="20">
         <v>41</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="20">
         <v>28</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="20">
         <v>42</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="20">
         <v>28</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="20">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B8" s="8" t="s">
+      <c r="O7" s="20">
+        <v>28</v>
+      </c>
+      <c r="P7" s="9">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16">
+      <c r="B8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="6">
         <v>121</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="6">
         <v>28</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="6">
         <v>121</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="6">
         <v>28</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="6">
         <v>51</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="6">
         <v>28</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="6">
         <v>51</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="6">
         <v>28</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="6">
         <v>51</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="6">
         <v>28</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="6">
         <v>47</v>
       </c>
-      <c r="N8" s="10">
+      <c r="N8" s="6">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B9" s="11" t="s">
+      <c r="O8" s="6">
+        <v>41</v>
+      </c>
+      <c r="P8" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16">
+      <c r="B9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="20">
         <v>400</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="20">
         <v>29</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="20">
         <v>399</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="20">
         <v>29</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="20">
         <v>399</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="20">
         <v>30</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="20">
         <v>399</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="20">
         <v>31</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="20">
         <v>399</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="20">
         <v>29</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="20">
         <v>124</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9" s="20">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B10" s="8" t="s">
+      <c r="O9" s="20">
+        <v>124</v>
+      </c>
+      <c r="P9" s="9">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16">
+      <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="6">
         <v>1424</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="6">
         <v>63</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="6">
         <v>1424</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="6">
         <v>63</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="6">
         <v>179</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="6">
         <v>62</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="6">
         <v>192</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="6">
         <v>59</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="6">
         <v>192</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="6">
         <v>60</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="6">
         <v>135</v>
       </c>
-      <c r="N10" s="10">
+      <c r="N10" s="6">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B11" s="11" t="s">
+      <c r="O10" s="6">
+        <v>42</v>
+      </c>
+      <c r="P10" s="7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16">
+      <c r="B11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="20">
         <v>501</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="20">
         <v>47</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="20">
         <v>501</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="20">
         <v>50</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="20">
         <v>211</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="20">
         <v>50</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="20">
         <v>212</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="20">
         <v>50</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="20">
         <v>212</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="20">
         <v>50</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="20">
         <v>211</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N11" s="20">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B12" s="8" t="s">
+      <c r="O11" s="20">
+        <v>17</v>
+      </c>
+      <c r="P11" s="9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16">
+      <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="6">
         <v>459</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="6">
         <v>75</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="6">
         <v>454</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="6">
         <v>73</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="6">
         <v>180</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="6">
         <v>68</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="6">
         <v>181</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="6">
         <v>69</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="6">
         <v>183</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="6">
         <v>72</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="6">
         <v>90</v>
       </c>
-      <c r="N12" s="10">
+      <c r="N12" s="6">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B13" s="11" t="s">
+      <c r="O12" s="6">
+        <v>135</v>
+      </c>
+      <c r="P12" s="7">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16">
+      <c r="B13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="20">
         <v>316</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="20">
         <v>53</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="20">
         <v>315</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="20">
         <v>53</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="20">
         <v>46</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="20">
         <v>53</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="20">
         <v>45</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="20">
         <v>54</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="20">
         <v>45</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="20">
         <v>55</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13" s="20">
         <v>43</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13" s="20">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B14" s="8" t="s">
+      <c r="O13" s="20">
+        <v>209</v>
+      </c>
+      <c r="P13" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16">
+      <c r="B14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="6">
         <v>20</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="6">
         <v>23</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="6">
         <v>20</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="6">
         <v>23</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="6">
         <v>19</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="6">
         <v>23</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="6">
         <v>18</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="6">
         <v>23</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="6">
         <v>18</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="6">
         <v>23</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="6">
         <v>17</v>
       </c>
-      <c r="N14" s="10">
+      <c r="N14" s="6">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B15" s="11" t="s">
+      <c r="O14" s="6">
+        <v>91</v>
+      </c>
+      <c r="P14" s="7">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16">
+      <c r="B15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="20">
         <v>659</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="20">
         <v>52</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="20">
         <v>293</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="20">
         <v>52</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="20">
         <v>298</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="20">
         <v>51</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="20">
         <v>159</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="20">
         <v>49</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="20">
         <v>166</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="20">
         <v>48</v>
       </c>
-      <c r="M15" s="12">
+      <c r="M15" s="20">
         <v>154</v>
       </c>
-      <c r="N15" s="13">
+      <c r="N15" s="20">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B16" s="8" t="s">
+      <c r="O15" s="20">
+        <v>154</v>
+      </c>
+      <c r="P15" s="9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16">
+      <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="6">
         <v>226</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="6">
         <v>66</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="6">
         <v>139</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="6">
         <v>64</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="6">
         <v>55</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="6">
         <v>62</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="6">
         <v>55</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="6">
         <v>62</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="6">
         <v>54</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="6">
         <v>58</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="6">
         <v>52</v>
       </c>
-      <c r="N16" s="10">
+      <c r="N16" s="6">
         <v>59</v>
       </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B17" s="11" t="s">
+      <c r="O16" s="6">
+        <v>52</v>
+      </c>
+      <c r="P16" s="7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16">
+      <c r="B17" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="20">
         <v>380</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="20">
         <v>76</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="20">
         <v>379</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="20">
         <v>75</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="20">
         <v>380</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="20">
         <v>74</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="20">
         <v>380</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="20">
         <v>75</v>
       </c>
-      <c r="K17" s="12">
+      <c r="K17" s="20">
         <v>380</v>
       </c>
-      <c r="L17" s="12">
+      <c r="L17" s="20">
         <v>75</v>
       </c>
-      <c r="M17" s="12">
+      <c r="M17" s="20">
         <v>380</v>
       </c>
-      <c r="N17" s="13">
+      <c r="N17" s="20">
         <v>75</v>
       </c>
-      <c r="O17" s="14"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B18" s="8" t="s">
+      <c r="O17" s="20">
+        <v>380</v>
+      </c>
+      <c r="P17" s="9">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16">
+      <c r="B18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="6">
         <v>152</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="6">
         <v>46</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="6">
         <v>151</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="6">
         <v>47</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="6">
         <v>151</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="6">
         <v>46</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="6">
         <v>150</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="6">
         <v>47</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="6">
         <v>150</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L18" s="6">
         <v>49</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M18" s="6">
         <v>149</v>
       </c>
-      <c r="N18" s="10">
+      <c r="N18" s="6">
         <v>58</v>
       </c>
-      <c r="O18" s="14"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B19" s="11" t="s">
+      <c r="O18" s="6">
+        <v>149</v>
+      </c>
+      <c r="P18" s="7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="B19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="20">
         <v>536</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="20">
         <v>110</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="20">
         <v>525</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="20">
         <v>109</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="20">
         <v>442</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="20">
         <v>111</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="20">
         <v>332</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="20">
         <v>111</v>
       </c>
-      <c r="K19" s="12">
+      <c r="K19" s="20">
         <v>327</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L19" s="20">
         <v>110</v>
       </c>
-      <c r="M19" s="12">
+      <c r="M19" s="20">
         <v>323</v>
       </c>
-      <c r="N19" s="13">
+      <c r="N19" s="20">
         <v>101</v>
       </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B20" s="8" t="s">
+      <c r="O19" s="20">
+        <v>322</v>
+      </c>
+      <c r="P19" s="9">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="B20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="6">
         <v>403</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="6">
         <v>89</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="6">
         <v>400</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="6">
         <v>84</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="6">
         <v>288</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="6">
         <v>79</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="6">
         <v>279</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="6">
         <v>78</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K20" s="6">
         <v>280</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L20" s="6">
         <v>79</v>
       </c>
-      <c r="M20" s="9">
+      <c r="M20" s="6">
         <v>169</v>
       </c>
-      <c r="N20" s="10">
+      <c r="N20" s="6">
         <v>77</v>
       </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B21" s="11" t="s">
+      <c r="O20" s="6">
+        <v>170</v>
+      </c>
+      <c r="P20" s="7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16">
+      <c r="B21" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="20">
         <v>864</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="20">
         <v>83</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="20">
         <v>466</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="20">
         <v>82</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="20">
         <v>432</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="20">
         <v>83</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="20">
         <v>441</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="20">
         <v>83</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K21" s="20">
         <v>441</v>
       </c>
-      <c r="L21" s="12">
+      <c r="L21" s="20">
         <v>83</v>
       </c>
-      <c r="M21" s="12">
+      <c r="M21" s="20">
         <v>441</v>
       </c>
-      <c r="N21" s="13">
+      <c r="N21" s="20">
         <v>83</v>
       </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B22" s="8" t="s">
+      <c r="O21" s="20">
+        <v>441</v>
+      </c>
+      <c r="P21" s="9">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="B22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="6">
         <v>58</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="6">
         <v>39</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="6">
         <v>60</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="6">
         <v>38</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="6">
         <v>47</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="6">
         <v>38</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="6">
         <v>48</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="6">
         <v>37</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K22" s="6">
         <v>49</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L22" s="6">
         <v>39</v>
       </c>
-      <c r="M22" s="9">
+      <c r="M22" s="6">
         <v>49</v>
       </c>
-      <c r="N22" s="10">
+      <c r="N22" s="6">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B23" s="11" t="s">
+      <c r="O22" s="6">
+        <v>49</v>
+      </c>
+      <c r="P22" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16">
+      <c r="B23" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="20">
         <v>446</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="20">
         <v>40</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="20">
         <v>444</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="20">
         <v>40</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="20">
         <v>444</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="20">
         <v>40</v>
       </c>
-      <c r="I23" s="12">
+      <c r="I23" s="20">
         <v>444</v>
       </c>
-      <c r="J23" s="12">
+      <c r="J23" s="20">
         <v>40</v>
       </c>
-      <c r="K23" s="12">
+      <c r="K23" s="20">
         <v>420</v>
       </c>
-      <c r="L23" s="12">
+      <c r="L23" s="20">
         <v>39</v>
       </c>
-      <c r="M23" s="12">
+      <c r="M23" s="20">
         <v>245</v>
       </c>
-      <c r="N23" s="13">
+      <c r="N23" s="20">
         <v>40</v>
       </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B24" s="8" t="s">
+      <c r="O23" s="20">
+        <v>245</v>
+      </c>
+      <c r="P23" s="9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="B24" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="6">
         <v>75</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="6">
         <v>42</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="6">
         <v>73</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="6">
         <v>43</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="6">
         <v>72</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="6">
         <v>43</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="6">
         <v>73</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="6">
         <v>43</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K24" s="6">
         <v>73</v>
       </c>
-      <c r="L24" s="9">
+      <c r="L24" s="6">
         <v>43</v>
       </c>
-      <c r="M24" s="9">
+      <c r="M24" s="6">
         <v>71</v>
       </c>
-      <c r="N24" s="10">
+      <c r="N24" s="6">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B25" s="11" t="s">
+      <c r="O24" s="6">
+        <v>71</v>
+      </c>
+      <c r="P24" s="7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="B25" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="20">
         <v>3769</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="20">
         <v>130</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="20">
         <v>3778</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="20">
         <v>127</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="20">
         <v>1795</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="20">
         <v>125</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="20">
         <v>1782</v>
       </c>
-      <c r="J25" s="12">
+      <c r="J25" s="20">
         <v>129</v>
       </c>
-      <c r="K25" s="12">
+      <c r="K25" s="20">
         <v>1774</v>
       </c>
-      <c r="L25" s="12">
+      <c r="L25" s="20">
         <v>132</v>
       </c>
-      <c r="M25" s="12">
+      <c r="M25" s="20">
         <v>877</v>
       </c>
-      <c r="N25" s="13">
+      <c r="N25" s="20">
         <v>132</v>
       </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B26" s="8" t="s">
+      <c r="O25" s="20">
+        <v>877</v>
+      </c>
+      <c r="P25" s="9">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16">
+      <c r="B26" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="6">
         <v>696</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="6">
         <v>68</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="6">
         <v>696</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="6">
         <v>66</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="6">
         <v>389</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="6">
         <v>65</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="6">
         <v>385</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="6">
         <v>66</v>
       </c>
-      <c r="K26" s="9">
+      <c r="K26" s="6">
         <v>385</v>
       </c>
-      <c r="L26" s="9">
+      <c r="L26" s="6">
         <v>67</v>
       </c>
-      <c r="M26" s="9">
+      <c r="M26" s="6">
         <v>385</v>
       </c>
-      <c r="N26" s="10">
+      <c r="N26" s="6">
         <v>65</v>
       </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B27" s="11" t="s">
+      <c r="O26" s="6">
+        <v>385</v>
+      </c>
+      <c r="P26" s="7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="B27" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="20">
         <v>61</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="20">
         <v>28</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="20">
         <v>59</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="20">
         <v>28</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="20">
         <v>58</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H27" s="20">
         <v>28</v>
       </c>
-      <c r="I27" s="12">
+      <c r="I27" s="20">
         <v>58</v>
       </c>
-      <c r="J27" s="12">
+      <c r="J27" s="20">
         <v>27</v>
       </c>
-      <c r="K27" s="12">
+      <c r="K27" s="20">
         <v>58</v>
       </c>
-      <c r="L27" s="12">
+      <c r="L27" s="20">
         <v>27</v>
       </c>
-      <c r="M27" s="12">
+      <c r="M27" s="20">
         <v>49</v>
       </c>
-      <c r="N27" s="13">
+      <c r="N27" s="20">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B28" s="8" t="s">
+      <c r="O27" s="20">
+        <v>49</v>
+      </c>
+      <c r="P27" s="9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16">
+      <c r="B28" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="6">
         <v>318</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="6">
         <v>26</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="6">
         <v>274</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="6">
         <v>27</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="6">
         <v>256</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="6">
         <v>29</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="6">
         <v>108</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J28" s="6">
         <v>30</v>
       </c>
-      <c r="K28" s="9">
+      <c r="K28" s="6">
         <v>108</v>
       </c>
-      <c r="L28" s="9">
+      <c r="L28" s="6">
         <v>30</v>
       </c>
-      <c r="M28" s="9">
+      <c r="M28" s="6">
         <v>108</v>
       </c>
-      <c r="N28" s="10">
+      <c r="N28" s="6">
         <v>30</v>
       </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B29" s="11" t="s">
+      <c r="O28" s="6">
+        <v>108</v>
+      </c>
+      <c r="P28" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16">
+      <c r="B29" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="20">
         <v>831</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="20">
         <v>48</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="20">
         <v>831</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F29" s="20">
         <v>48</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="20">
         <v>426</v>
       </c>
-      <c r="H29" s="12">
+      <c r="H29" s="20">
         <v>47</v>
       </c>
-      <c r="I29" s="12">
+      <c r="I29" s="20">
         <v>157</v>
       </c>
-      <c r="J29" s="12">
+      <c r="J29" s="20">
         <v>46</v>
       </c>
-      <c r="K29" s="12">
+      <c r="K29" s="20">
         <v>157</v>
       </c>
-      <c r="L29" s="12">
+      <c r="L29" s="20">
         <v>46</v>
       </c>
-      <c r="M29" s="12">
+      <c r="M29" s="20">
         <v>135</v>
       </c>
-      <c r="N29" s="13">
+      <c r="N29" s="20">
         <v>48</v>
       </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B30" s="8" t="s">
+      <c r="O29" s="20">
+        <v>135</v>
+      </c>
+      <c r="P29" s="9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16">
+      <c r="B30" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="6">
         <v>330</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="6">
         <v>67</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="6">
         <v>330</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="6">
         <v>67</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="6">
         <v>103</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="6">
         <v>67</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="6">
         <v>102</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="6">
         <v>67</v>
       </c>
-      <c r="K30" s="9">
+      <c r="K30" s="6">
         <v>103</v>
       </c>
-      <c r="L30" s="9">
+      <c r="L30" s="6">
         <v>66</v>
       </c>
-      <c r="M30" s="9">
+      <c r="M30" s="6">
         <v>102</v>
       </c>
-      <c r="N30" s="10">
+      <c r="N30" s="6">
         <v>65</v>
       </c>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B31" s="11" t="s">
+      <c r="O30" s="6">
+        <v>101</v>
+      </c>
+      <c r="P30" s="7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16">
+      <c r="B31" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="20">
         <v>211</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="20">
         <v>82</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="20">
         <v>211</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="20">
         <v>85</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G31" s="20">
         <v>212</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H31" s="20">
         <v>74</v>
       </c>
-      <c r="I31" s="12">
+      <c r="I31" s="20">
         <v>212</v>
       </c>
-      <c r="J31" s="12">
+      <c r="J31" s="20">
         <v>73</v>
       </c>
-      <c r="K31" s="12">
+      <c r="K31" s="20">
         <v>212</v>
       </c>
-      <c r="L31" s="12">
+      <c r="L31" s="20">
         <v>73</v>
       </c>
-      <c r="M31" s="12">
+      <c r="M31" s="20">
         <v>214</v>
       </c>
-      <c r="N31" s="13">
+      <c r="N31" s="20">
         <v>67</v>
       </c>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B32" s="8" t="s">
+      <c r="O31" s="20">
+        <v>214</v>
+      </c>
+      <c r="P31" s="9">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16">
+      <c r="B32" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="6">
         <v>1005</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="6">
         <v>38</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="6">
         <v>1005</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="6">
         <v>39</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="6">
         <v>29</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="6">
         <v>40</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="6">
         <v>29</v>
       </c>
-      <c r="J32" s="9">
+      <c r="J32" s="6">
         <v>40</v>
       </c>
-      <c r="K32" s="9">
+      <c r="K32" s="6">
         <v>28</v>
       </c>
-      <c r="L32" s="9">
+      <c r="L32" s="6">
         <v>38</v>
       </c>
-      <c r="M32" s="9">
+      <c r="M32" s="6">
         <v>26</v>
       </c>
-      <c r="N32" s="10">
+      <c r="N32" s="6">
         <v>38</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B33" s="11" t="s">
+      <c r="O32" s="6">
+        <v>26</v>
+      </c>
+      <c r="P32" s="7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16">
+      <c r="B33" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="20">
         <v>128</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="20">
         <v>48</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="20">
         <v>128</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F33" s="20">
         <v>48</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G33" s="20">
         <v>66</v>
       </c>
-      <c r="H33" s="12">
+      <c r="H33" s="20">
         <v>46</v>
       </c>
-      <c r="I33" s="12">
+      <c r="I33" s="20">
         <v>66</v>
       </c>
-      <c r="J33" s="12">
+      <c r="J33" s="20">
         <v>46</v>
       </c>
-      <c r="K33" s="12">
+      <c r="K33" s="20">
         <v>66</v>
       </c>
-      <c r="L33" s="12">
+      <c r="L33" s="20">
         <v>45</v>
       </c>
-      <c r="M33" s="12">
+      <c r="M33" s="20">
         <v>58</v>
       </c>
-      <c r="N33" s="13">
+      <c r="N33" s="20">
         <v>44</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B34" s="8" t="s">
+      <c r="O33" s="20">
+        <v>59</v>
+      </c>
+      <c r="P33" s="9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16">
+      <c r="B34" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="6">
         <v>199</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="6">
         <v>12</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="6">
         <v>199</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="6">
         <v>12</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="6">
         <v>166</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H34" s="6">
         <v>12</v>
       </c>
-      <c r="I34" s="9">
+      <c r="I34" s="6">
         <v>166</v>
       </c>
-      <c r="J34" s="9">
+      <c r="J34" s="6">
         <v>12</v>
       </c>
-      <c r="K34" s="9">
+      <c r="K34" s="6">
         <v>166</v>
       </c>
-      <c r="L34" s="9">
+      <c r="L34" s="6">
         <v>13</v>
       </c>
-      <c r="M34" s="9">
+      <c r="M34" s="6">
         <v>163</v>
       </c>
-      <c r="N34" s="10">
+      <c r="N34" s="6">
         <v>14</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="11" t="s">
+      <c r="O34" s="6">
+        <v>163</v>
+      </c>
+      <c r="P34" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" ht="15" customHeight="1">
+      <c r="B35" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="20">
         <v>477</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="20">
         <v>121</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="20">
         <v>485</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F35" s="20">
         <v>121</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="20">
         <v>338</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H35" s="20">
         <v>119</v>
       </c>
-      <c r="I35" s="12">
+      <c r="I35" s="20">
         <v>347</v>
       </c>
-      <c r="J35" s="12">
+      <c r="J35" s="20">
         <v>119</v>
       </c>
-      <c r="K35" s="12">
+      <c r="K35" s="20">
         <v>343</v>
       </c>
-      <c r="L35" s="12">
+      <c r="L35" s="20">
         <v>117</v>
       </c>
-      <c r="M35" s="12">
+      <c r="M35" s="20">
         <v>340</v>
       </c>
-      <c r="N35" s="13">
+      <c r="N35" s="20">
         <v>119</v>
       </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B36" s="8" t="s">
+      <c r="O35" s="20">
+        <v>340</v>
+      </c>
+      <c r="P35" s="9">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16">
+      <c r="B36" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="6">
         <v>799</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="6">
         <v>41</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="6">
         <v>799</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="6">
         <v>37</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="6">
         <v>189</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H36" s="6">
         <v>38</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="6">
         <v>190</v>
       </c>
-      <c r="J36" s="9">
+      <c r="J36" s="6">
         <v>37</v>
       </c>
-      <c r="K36" s="9">
+      <c r="K36" s="6">
         <v>191</v>
       </c>
-      <c r="L36" s="9">
+      <c r="L36" s="6">
         <v>38</v>
       </c>
-      <c r="M36" s="9">
+      <c r="M36" s="6">
         <v>183</v>
       </c>
-      <c r="N36" s="10">
+      <c r="N36" s="6">
         <v>37</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B37" s="15" t="s">
+      <c r="O36" s="6">
+        <v>183</v>
+      </c>
+      <c r="P36" s="7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16">
+      <c r="B37" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="12">
         <v>820</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D37" s="12">
         <v>35</v>
       </c>
-      <c r="E37" s="16">
+      <c r="E37" s="12">
         <v>820</v>
       </c>
-      <c r="F37" s="16">
+      <c r="F37" s="12">
         <v>35</v>
       </c>
-      <c r="G37" s="16">
+      <c r="G37" s="12">
         <v>123</v>
       </c>
-      <c r="H37" s="16">
+      <c r="H37" s="12">
         <v>36</v>
       </c>
-      <c r="I37" s="16">
+      <c r="I37" s="12">
         <v>122</v>
       </c>
-      <c r="J37" s="16">
+      <c r="J37" s="12">
         <v>36</v>
       </c>
-      <c r="K37" s="16">
+      <c r="K37" s="12">
         <v>122</v>
       </c>
-      <c r="L37" s="16">
+      <c r="L37" s="12">
         <v>36</v>
       </c>
-      <c r="M37" s="16">
+      <c r="M37" s="12">
         <v>114</v>
       </c>
-      <c r="N37" s="17">
+      <c r="N37" s="12">
         <v>39</v>
       </c>
-    </row>
-    <row r="38" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="O37" s="12">
+        <v>112</v>
+      </c>
+      <c r="P37" s="13">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" ht="18" customHeight="1">
       <c r="B38" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-    </row>
-    <row r="39" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="O38" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" ht="18" customHeight="1">
       <c r="B39" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="14"/>
-      <c r="N39" s="18"/>
-    </row>
-    <row r="40" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="19" t="s">
+      <c r="C39" s="10"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" ht="18" customHeight="1">
+      <c r="B40" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="20"/>
-    </row>
-    <row r="166" spans="8:8" x14ac:dyDescent="0.45">
-      <c r="H166" s="14"/>
-    </row>
-    <row r="167" spans="8:8" x14ac:dyDescent="0.45">
-      <c r="H167" s="14"/>
-    </row>
-    <row r="168" spans="8:8" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
+      <c r="C40" s="16"/>
+      <c r="O40" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16">
+      <c r="O41" s="3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16">
+      <c r="O42" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16">
+      <c r="O43" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16">
+      <c r="O44" s="3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16">
+      <c r="O45" s="3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16">
+      <c r="O46" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16">
+      <c r="O47" s="3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16">
+      <c r="O48" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="15:15">
+      <c r="O49" s="3">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="50" spans="15:15">
+      <c r="O50" s="3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="51" spans="15:15">
+      <c r="O51" s="3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="52" spans="15:15">
+      <c r="O52" s="3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="53" spans="15:15">
+      <c r="O53" s="3">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="54" spans="15:15">
+      <c r="O54" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="15:15">
+      <c r="O55" s="3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="56" spans="15:15">
+      <c r="O56" s="3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="15:15">
+      <c r="O57" s="3">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="58" spans="15:15">
+      <c r="O58" s="3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="59" spans="15:15">
+      <c r="O59" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="15:15">
+      <c r="O60" s="3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" spans="15:15">
+      <c r="O61" s="3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="62" spans="15:15">
+      <c r="O62" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="15:15">
+      <c r="O63" s="3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="64" spans="15:15">
+      <c r="O64" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="15:15">
+      <c r="O65" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="15:15">
+      <c r="O66" s="3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="67" spans="15:15">
+      <c r="O67" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="68" spans="15:15">
+      <c r="O68" s="3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="69" spans="15:15">
+      <c r="O69" s="3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="70" spans="15:15">
+      <c r="O70" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="71" spans="15:15">
+      <c r="O71" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" spans="15:15">
+      <c r="O72" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73" spans="15:15">
+      <c r="O73" s="3">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="74" spans="15:15">
+      <c r="O74" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" spans="15:15">
+      <c r="O75" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="15:15">
+      <c r="O76" s="3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="77" spans="15:15">
+      <c r="O77" s="3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="78" spans="15:15">
+      <c r="O78" s="3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="79" spans="15:15">
+      <c r="O79" s="3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="80" spans="15:15">
+      <c r="O80" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="81" spans="15:15">
+      <c r="O81" s="3">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="82" spans="15:15">
+      <c r="O82" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="83" spans="15:15">
+      <c r="O83" s="3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="84" spans="15:15">
+      <c r="O84" s="3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="85" spans="15:15">
+      <c r="O85" s="3">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="86" spans="15:15">
+      <c r="O86" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="87" spans="15:15">
+      <c r="O87" s="3">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="88" spans="15:15">
+      <c r="O88" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="89" spans="15:15">
+      <c r="O89" s="3">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="90" spans="15:15">
+      <c r="O90" s="3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="91" spans="15:15">
+      <c r="O91" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="92" spans="15:15">
+      <c r="O92" s="3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="93" spans="15:15">
+      <c r="O93" s="3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="94" spans="15:15">
+      <c r="O94" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="95" spans="15:15">
+      <c r="O95" s="3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="96" spans="15:15">
+      <c r="O96" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="97" spans="15:15">
+      <c r="O97" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="98" spans="15:15">
+      <c r="O98" s="3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="99" spans="15:15">
+      <c r="O99" s="3">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="100" spans="15:15">
+      <c r="O100" s="3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="101" spans="15:15">
+      <c r="O101" s="3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="102" spans="15:15">
+      <c r="O102" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="103" spans="15:15">
+      <c r="O103" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="104" spans="15:15">
+      <c r="O104" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="105" spans="15:15">
+      <c r="O105" s="3">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="106" spans="15:15">
+      <c r="O106" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="107" spans="15:15">
+      <c r="O107" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="15:15">
+      <c r="O108" s="3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="109" spans="15:15">
+      <c r="O109" s="3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="110" spans="15:15">
+      <c r="O110" s="3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="111" spans="15:15">
+      <c r="O111" s="3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="112" spans="15:15">
+      <c r="O112" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="113" spans="15:15">
+      <c r="O113" s="3">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="114" spans="15:15">
+      <c r="O114" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="115" spans="15:15">
+      <c r="O115" s="3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="116" spans="15:15">
+      <c r="O116" s="3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="117" spans="15:15">
+      <c r="O117" s="3">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="118" spans="15:15">
+      <c r="O118" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="119" spans="15:15">
+      <c r="O119" s="3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="120" spans="15:15">
+      <c r="O120" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="121" spans="15:15">
+      <c r="O121" s="3">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="122" spans="15:15">
+      <c r="O122" s="3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="123" spans="15:15">
+      <c r="O123" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="124" spans="15:15">
+      <c r="O124" s="3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="125" spans="15:15">
+      <c r="O125" s="3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="126" spans="15:15">
+      <c r="O126" s="3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="127" spans="15:15">
+      <c r="O127" s="3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="128" spans="15:15">
+      <c r="O128" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="129" spans="15:15">
+      <c r="O129" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="130" spans="15:15">
+      <c r="O130" s="3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="131" spans="15:15">
+      <c r="O131" s="3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="132" spans="15:15">
+      <c r="O132" s="3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="133" spans="15:15">
+      <c r="O133" s="3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="134" spans="15:15">
+      <c r="O134" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="135" spans="15:15">
+      <c r="O135" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="136" spans="15:15">
+      <c r="O136" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="137" spans="15:15">
+      <c r="O137" s="3">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="138" spans="15:15">
+      <c r="O138" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="139" spans="15:15">
+      <c r="O139" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="140" spans="15:15">
+      <c r="O140" s="3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="141" spans="15:15">
+      <c r="O141" s="3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="142" spans="15:15">
+      <c r="O142" s="3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="143" spans="15:15">
+      <c r="O143" s="3">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="144" spans="15:15">
+      <c r="O144" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="145" spans="15:15">
+      <c r="O145" s="3">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="146" spans="15:15">
+      <c r="O146" s="3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="147" spans="15:15">
+      <c r="O147" s="3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="148" spans="15:15">
+      <c r="O148" s="3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="149" spans="15:15">
+      <c r="O149" s="3">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="150" spans="15:15">
+      <c r="O150" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="151" spans="15:15">
+      <c r="O151" s="3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="152" spans="15:15">
+      <c r="O152" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="153" spans="15:15">
+      <c r="O153" s="3">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="154" spans="15:15">
+      <c r="O154" s="3">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="155" spans="15:15">
+      <c r="O155" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="156" spans="15:15">
+      <c r="O156" s="3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="157" spans="15:15">
+      <c r="O157" s="3">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="158" spans="15:15">
+      <c r="O158" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="159" spans="15:15">
+      <c r="O159" s="3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="160" spans="15:15">
+      <c r="O160" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="161" spans="8:15">
+      <c r="O161" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="162" spans="8:15">
+      <c r="O162" s="3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="163" spans="8:15">
+      <c r="O163" s="3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="164" spans="8:15">
+      <c r="O164" s="3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="165" spans="8:15">
+      <c r="O165" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="166" spans="8:15">
+      <c r="H166" s="10"/>
+      <c r="O166" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="167" spans="8:15">
+      <c r="H167" s="10"/>
+      <c r="O167" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="168" spans="8:15" ht="18" customHeight="1">
+      <c r="O168" s="3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="169" spans="8:15">
+      <c r="O169" s="3">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="170" spans="8:15">
+      <c r="O170" s="3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="171" spans="8:15">
+      <c r="O171" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="172" spans="8:15">
+      <c r="O172" s="3">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="173" spans="8:15">
+      <c r="O173" s="3">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="174" spans="8:15">
+      <c r="O174" s="3">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="175" spans="8:15">
+      <c r="O175" s="3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="176" spans="8:15">
+      <c r="O176" s="3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="177" spans="15:15">
+      <c r="O177" s="3">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="178" spans="15:15">
+      <c r="O178" s="3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="179" spans="15:15">
+      <c r="O179" s="3">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="180" spans="15:15">
+      <c r="O180" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="181" spans="15:15">
+      <c r="O181" s="3">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="182" spans="15:15">
+      <c r="O182" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="183" spans="15:15">
+      <c r="O183" s="3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="184" spans="15:15">
+      <c r="O184" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="185" spans="15:15">
+      <c r="O185" s="3">
+        <v>3778</v>
+      </c>
+    </row>
+    <row r="186" spans="15:15">
+      <c r="O186" s="3">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="187" spans="15:15">
+      <c r="O187" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="188" spans="15:15">
+      <c r="O188" s="3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="189" spans="15:15">
+      <c r="O189" s="3">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="190" spans="15:15">
+      <c r="O190" s="3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="191" spans="15:15">
+      <c r="O191" s="3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="192" spans="15:15">
+      <c r="O192" s="3">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="193" spans="15:15">
+      <c r="O193" s="3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="194" spans="15:15">
+      <c r="O194" s="3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="195" spans="15:15">
+      <c r="O195" s="3">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="196" spans="15:15">
+      <c r="O196" s="3">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="197" spans="15:15">
+      <c r="O197" s="3">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="198" spans="15:15">
+      <c r="O198" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="199" spans="15:15">
+      <c r="O199" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="200" spans="15:15">
+      <c r="O200" s="3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="201" spans="15:15">
+      <c r="O201" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="202" spans="15:15">
+      <c r="O202" s="3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="203" spans="15:15">
+      <c r="O203" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="204" spans="15:15">
+      <c r="O204" s="3">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="205" spans="15:15">
+      <c r="O205" s="3">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="206" spans="15:15">
+      <c r="O206" s="3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="207" spans="15:15">
+      <c r="O207" s="3">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="208" spans="15:15">
+      <c r="O208" s="3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="209" spans="15:15">
+      <c r="O209" s="3">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="210" spans="15:15">
+      <c r="O210" s="3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="211" spans="15:15">
+      <c r="O211" s="3">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="212" spans="15:15">
+      <c r="O212" s="3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="213" spans="15:15">
+      <c r="O213" s="3">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="214" spans="15:15">
+      <c r="O214" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="215" spans="15:15">
+      <c r="O215" s="3">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="216" spans="15:15">
+      <c r="O216" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="217" spans="15:15">
+      <c r="O217" s="3">
+        <v>3769</v>
+      </c>
+    </row>
+    <row r="218" spans="15:15">
+      <c r="O218" s="3">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="219" spans="15:15">
+      <c r="O219" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="220" spans="15:15">
+      <c r="O220" s="3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="221" spans="15:15">
+      <c r="O221" s="3">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="222" spans="15:15">
+      <c r="O222" s="3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="223" spans="15:15">
+      <c r="O223" s="3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="224" spans="15:15">
+      <c r="O224" s="3">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="225" spans="15:15">
+      <c r="O225" s="3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="226" spans="15:15">
+      <c r="O226" s="3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="227" spans="15:15">
+      <c r="O227" s="3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="228" spans="15:15">
+      <c r="O228" s="3">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="229" spans="15:15">
+      <c r="O229" s="3">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="230" spans="15:15">
+      <c r="O230" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="231" spans="15:15">
+      <c r="O231" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="232" spans="15:15">
+      <c r="O232" s="3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="233" spans="15:15">
+      <c r="O233" s="3">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="234" spans="15:15">
+      <c r="O234" s="3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="235" spans="15:15">
+      <c r="O235" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="236" spans="15:15">
+      <c r="O236" s="3">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="237" spans="15:15">
+      <c r="O237" s="3">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="238" spans="15:15">
+      <c r="O238" s="3">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="239" spans="15:15">
+      <c r="O239" s="3">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="240" spans="15:15">
+      <c r="O240" s="3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="241" spans="15:15">
+      <c r="O241" s="3">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="242" spans="15:15">
+      <c r="O242" s="3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="243" spans="15:15">
+      <c r="O243" s="3">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="244" spans="15:15">
+      <c r="O244" s="3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="245" spans="15:15">
+      <c r="O245" s="3">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="246" spans="15:15">
+      <c r="O246" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="247" spans="15:15">
+      <c r="O247" s="3">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="248" spans="15:15">
+      <c r="O248" s="3">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="249" spans="15:15">
+      <c r="O249" s="3">
+        <v>3767</v>
+      </c>
+    </row>
+    <row r="250" spans="15:15">
+      <c r="O250" s="3">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="251" spans="15:15">
+      <c r="O251" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="252" spans="15:15">
+      <c r="O252" s="3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="253" spans="15:15">
+      <c r="O253" s="3">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="254" spans="15:15">
+      <c r="O254" s="3">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="255" spans="15:15">
+      <c r="O255" s="3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="256" spans="15:15">
+      <c r="O256" s="3">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="257" spans="15:15">
+      <c r="O257" s="3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="258" spans="15:15">
+      <c r="O258" s="3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="259" spans="15:15">
+      <c r="O259" s="3">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="260" spans="15:15">
+      <c r="O260" s="3">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="261" spans="15:15">
+      <c r="O261" s="3">
+        <v>825</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="O4:P4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:D4"/>
